--- a/EVAL_BDD_Antoine/Hotels.xlsx
+++ b/EVAL_BDD_Antoine/Hotels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Station" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="131">
   <si>
     <t>John</t>
   </si>
@@ -407,6 +407,15 @@
   </si>
   <si>
     <t>Identifiant</t>
+  </si>
+  <si>
+    <t>date reservation</t>
+  </si>
+  <si>
+    <t>debutsejour</t>
+  </si>
+  <si>
+    <t>finsejour</t>
   </si>
 </sst>
 </file>
@@ -414,7 +423,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -897,7 +906,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1371,15 +1380,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="108.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -1399,7 +1412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1415,8 +1428,22 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>VLOOKUP(C2,M:N,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,"&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;");"</f>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,101,1,1,1);</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -1432,8 +1459,22 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G40" si="0">VLOOKUP(C3,M:N,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H40" si="1">"INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,"&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;");"</f>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,102,2,1,1);</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1449,8 +1490,22 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,103,1,1,1);</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -1466,8 +1521,22 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,104,2,1,2);</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1483,8 +1552,22 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,105,2,1,2);</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -1500,8 +1583,22 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,106,1,1,2);</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -1517,8 +1614,22 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,107,3,1,3);</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -1534,8 +1645,22 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,108,1,1,3);</v>
+      </c>
+      <c r="M9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -1551,8 +1676,22 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,109,2,1,3);</v>
+      </c>
+      <c r="M10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -1568,8 +1707,22 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,235,1,1,4);</v>
+      </c>
+      <c r="M11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1585,8 +1738,22 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,157,1,1,4);</v>
+      </c>
+      <c r="M12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1602,8 +1769,22 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,874,1,1,7);</v>
+      </c>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1619,8 +1800,22 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,125,5,1,7);</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1636,8 +1831,22 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,101,3,1,6);</v>
+      </c>
+      <c r="M15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
@@ -1653,8 +1862,22 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,102,3,1,6);</v>
+      </c>
+      <c r="M16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
@@ -1670,8 +1893,16 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,103,2,1,10);</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1687,8 +1918,16 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,104,3,1,15);</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1704,8 +1943,16 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,105,3,1,6);</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
@@ -1721,8 +1968,16 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,106,1,1,15);</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1738,8 +1993,16 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,107,1,1,11);</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
@@ -1755,8 +2018,16 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,108,2,1,13);</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1772,8 +2043,16 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,109,2,1,10);</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1789,8 +2068,16 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,235,3,1,12);</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>24</v>
       </c>
@@ -1806,8 +2093,16 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,157,1,1,11);</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1823,8 +2118,16 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,874,2,1,7);</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
@@ -1840,8 +2143,16 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,125,1,1,9);</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1857,8 +2168,16 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,101,3,1,8);</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>28</v>
       </c>
@@ -1874,8 +2193,16 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,102,3,1,15);</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
@@ -1891,8 +2218,16 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,103,1,1,11);</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>30</v>
       </c>
@@ -1908,8 +2243,16 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,104,1,1,11);</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31</v>
       </c>
@@ -1925,8 +2268,16 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,105,1,1,13);</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>32</v>
       </c>
@@ -1942,8 +2293,16 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,106,2,1,15);</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33</v>
       </c>
@@ -1959,8 +2318,16 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,107,2,1,12);</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>34</v>
       </c>
@@ -1976,8 +2343,16 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,108,1,1,9);</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>35</v>
       </c>
@@ -1993,8 +2368,16 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,109,3,1,13);</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>36</v>
       </c>
@@ -2010,8 +2393,16 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,235,3,1,8);</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>37</v>
       </c>
@@ -2027,8 +2418,16 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,157,3,1,14);</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>38</v>
       </c>
@@ -2044,8 +2443,16 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,874,1,1,8);</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>39</v>
       </c>
@@ -2060,6 +2467,14 @@
       </c>
       <c r="F40">
         <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `chambres`(`idChambre`, `numeroChambre`, `capacite`, `typeChambre`, `idHotel`) VALUES (NULL,125,2,1,10);</v>
       </c>
     </row>
   </sheetData>
@@ -2070,1623 +2485,2098 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="L5" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="193.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="193.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="str">
-        <f>"INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"""&amp;G2&amp;""","""&amp;H2&amp;""","""&amp;I2&amp;""","&amp;J2&amp;","&amp;D2&amp;");"</f>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43773,7965118345","43782,6250102516","43786,3541448127",400,3);</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <f>TEXT(J2,"aaaa-mm-jj")</f>
+        <v>2019-11-04</v>
+      </c>
+      <c r="C2" t="str">
+        <f>TEXT(K2,"aaaa-mm-jj")</f>
+        <v>2019-11-13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>TEXT(L2,"aaaa-mm-jj")</f>
+        <v>2019-11-17</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>VLOOKUP(E2,N:O,2,0)</f>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(H2,Q:R,2,0)</f>
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="2">
+      <c r="I2" s="2">
         <v>43773</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>43773.796511834531</v>
       </c>
-      <c r="H2" s="1">
+      <c r="K2" s="1">
         <v>43782.62501025157</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <v>43786.354144812714</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>400</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>50</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L40" si="0">"INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"""&amp;G3&amp;""","""&amp;H3&amp;""","""&amp;I3&amp;""","&amp;J3&amp;","&amp;D3&amp;");"</f>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43575,3456128208","43592,8843238796","43594,6635807993",2400,1);</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="str">
+        <f>"INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"""&amp;B2&amp;""","""&amp;C2&amp;""","""&amp;D2&amp;""","&amp;M2&amp;","&amp;N2&amp;","&amp;F2&amp;","&amp;G2&amp;");"</f>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-11-04","2019-11-13","2019-11-17",400,50,1,3);</v>
+      </c>
+      <c r="Q2" t="s">
         <v>112</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B40" si="0">TEXT(J3,"aaaa-mm-jj")</f>
+        <v>2019-04-20</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C40" si="1">TEXT(K3,"aaaa-mm-jj")</f>
+        <v>2019-05-07</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D40" si="2">TEXT(L3,"aaaa-mm-jj")</f>
+        <v>2019-05-09</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D40" si="1">VLOOKUP(E3,N:O,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G40" si="3">VLOOKUP(H3,Q:R,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="2">
+      <c r="I3" s="2">
         <v>43575.34561282082</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
         <v>43575.34561282082</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <v>43592.884323879553</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3" s="1">
         <v>43594.663580799323</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>2400</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>800</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43841,0567567921","43873,3870606738","43879,6555541457",3400,2);</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O40" si="4">"INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"""&amp;B3&amp;""","""&amp;C3&amp;""","""&amp;D3&amp;""","&amp;M3&amp;","&amp;N3&amp;","&amp;F3&amp;","&amp;G3&amp;");"</f>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-04-20","2019-05-07","2019-05-09",2400,800,1,1);</v>
+      </c>
+      <c r="Q3" t="s">
         <v>113</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-01-11</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-02-12</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>2020-02-18</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
+      <c r="G4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="2">
+      <c r="I4" s="2">
         <v>43841.056756792081</v>
       </c>
-      <c r="G4" s="2">
+      <c r="J4" s="2">
         <v>43841.056756792081</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K4" s="1">
         <v>43873.387060673849</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <v>43879.655554145684</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>3400</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>100</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43635,4486791792","43682,67670727","43695,5849645396",7200,4);</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2020-01-11","2020-02-12","2020-02-18",3400,100,2,2);</v>
+      </c>
+      <c r="Q4" t="s">
         <v>114</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-06-19</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-08-05</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-08-18</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
+      <c r="G5">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="2">
+      <c r="I5" s="2">
         <v>43635.448679179171</v>
       </c>
-      <c r="G5" s="2">
+      <c r="J5" s="2">
         <v>43635.448679179171</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>43682.676707269959</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <v>43695.584964539645</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>7200</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>180</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43557,8129145645","43584,7167607896","43588,09982937",1400,5);</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-06-19","2019-08-05","2019-08-18",7200,180,2,4);</v>
+      </c>
+      <c r="Q5" t="s">
         <v>115</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-04-02</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-04-29</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-03</v>
+      </c>
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
+      <c r="G6">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="2">
+      <c r="I6" s="2">
         <v>43557.812914564543</v>
       </c>
-      <c r="G6" s="2">
+      <c r="J6" s="2">
         <v>43557.812914564543</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>43584.716760789597</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6" s="1">
         <v>43588.099829370003</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>1400</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>450</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43758,573031666","43800,9484705522","43814,1333722429",2400,6);</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-04-02","2019-04-29","2019-05-03",1400,450,3,5);</v>
+      </c>
+      <c r="Q6" t="s">
         <v>116</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-10-20</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-12-01</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-12-15</v>
+      </c>
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
+      <c r="G7">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43758.573031665983</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43758.573031665983</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K7" s="1">
         <v>43800.948470552248</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7" s="1">
         <v>43814.133372242926</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>2400</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>780</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43523,0184612168","43555,5616909156","43559,6594621552",500,6);</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-10-20","2019-12-01","2019-12-15",2400,780,4,6);</v>
+      </c>
+      <c r="Q7" t="s">
         <v>117</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-02-27</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-31</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-04-04</v>
+      </c>
+      <c r="E8">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
+      <c r="G8">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="2">
+      <c r="I8" s="2">
         <v>43523.01846121678</v>
       </c>
-      <c r="G8" s="2">
+      <c r="J8" s="2">
         <v>43523.01846121678</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K8" s="1">
         <v>43555.561690915551</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8" s="1">
         <v>43559.659462155192</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>500</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>80</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43667,382417926","43693,2463967468","43693,5339427006",40,8);</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-02-27","2019-03-31","2019-04-04",500,80,4,6);</v>
+      </c>
+      <c r="Q8" t="s">
         <v>118</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-07-21</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-08-16</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-08-16</v>
+      </c>
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
+      <c r="G9">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="2">
+      <c r="I9" s="2">
         <v>43667.382417926099</v>
       </c>
-      <c r="G9" s="2">
+      <c r="J9" s="2">
         <v>43667.382417926099</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K9" s="1">
         <v>43693.246396746777</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9" s="1">
         <v>43693.533942700582</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>40</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>0</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43750,9400825297","43792,1365922808","43798,8739624944",580,15);</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-07-21","2019-08-16","2019-08-16",40,0,4,8);</v>
+      </c>
+      <c r="Q9" t="s">
         <v>119</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-10-12</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-11-23</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-11-29</v>
+      </c>
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
+      <c r="G10">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2">
+      <c r="I10" s="2">
         <v>43750.940082529749</v>
       </c>
-      <c r="G10" s="2">
+      <c r="J10" s="2">
         <v>43750.940082529749</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K10" s="1">
         <v>43792.136592280811</v>
       </c>
-      <c r="I10" s="1">
+      <c r="L10" s="1">
         <v>43798.873962494414</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>580</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>58</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43821,5425116484","43857,8487380708","43860,3855859249",140,17);</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-10-12","2019-11-23","2019-11-29",580,58,8,15);</v>
+      </c>
+      <c r="Q10" t="s">
         <v>13</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-12-22</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-01-27</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>2020-01-30</v>
+      </c>
+      <c r="E11">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
+      <c r="G11">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="2">
+      <c r="I11" s="2">
         <v>43821.542511648418</v>
       </c>
-      <c r="G11" s="2">
+      <c r="J11" s="2">
         <v>43821.542511648418</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K11" s="1">
         <v>43857.84873807081</v>
       </c>
-      <c r="I11" s="1">
+      <c r="L11" s="1">
         <v>43860.38558592488</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>140</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>14</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43667,6563019123","43695,2305866949","43698,0424088818",360,15);</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-12-22","2020-01-27","2020-01-30",140,14,9,17);</v>
+      </c>
+      <c r="Q11" t="s">
         <v>15</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-07-21</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-08-18</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-08-21</v>
+      </c>
+      <c r="E12">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
+      <c r="G12">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2">
+      <c r="I12" s="2">
         <v>43667.656301912313</v>
       </c>
-      <c r="G12" s="2">
+      <c r="J12" s="2">
         <v>43667.656301912313</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K12" s="1">
         <v>43695.230586694852</v>
       </c>
-      <c r="I12" s="1">
+      <c r="L12" s="1">
         <v>43698.042408881774</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>360</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>36</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43475,3301807439","43516,076838762","43525,9972741969",1380,20);</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="O12" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-07-21","2019-08-18","2019-08-21",360,36,8,15);</v>
+      </c>
+      <c r="Q12" t="s">
         <v>17</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-10</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-02-20</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-03-01</v>
+      </c>
+      <c r="E13">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
+      <c r="G13">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="2">
+      <c r="I13" s="2">
         <v>43475.330180743913</v>
       </c>
-      <c r="G13" s="2">
+      <c r="J13" s="2">
         <v>43475.330180743913</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K13" s="1">
         <v>43516.07683876199</v>
       </c>
-      <c r="I13" s="1">
+      <c r="L13" s="1">
         <v>43525.997274196918</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>1380</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>138</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43564,87351375","43572,690538479","43587,5295266772",420,16);</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-01-10","2019-02-20","2019-03-01",1380,138,4,20);</v>
+      </c>
+      <c r="Q13" t="s">
         <v>111</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-04-09</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-04-17</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-02</v>
+      </c>
+      <c r="E14">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
+      <c r="G14">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2">
+      <c r="I14" s="2">
         <v>43564.873513750012</v>
       </c>
-      <c r="G14" s="2">
+      <c r="J14" s="2">
         <v>43564.873513750012</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K14" s="1">
         <v>43572.690538478986</v>
       </c>
-      <c r="I14" s="1">
+      <c r="L14" s="1">
         <v>43587.529526677245</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>420</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>42</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43606,385566533","43629,8205134538","43642,0185771069",360,16);</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-04-09","2019-04-17","2019-05-02",420,42,13,16);</v>
+      </c>
+      <c r="Q14" t="s">
         <v>20</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-05-21</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-06-13</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-06-26</v>
+      </c>
+      <c r="E15">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>13</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
+      <c r="G15">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="2">
+      <c r="I15" s="2">
         <v>43606.385566533034</v>
       </c>
-      <c r="G15" s="2">
+      <c r="J15" s="2">
         <v>43606.385566533034</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K15" s="1">
         <v>43629.820513453815</v>
       </c>
-      <c r="I15" s="1">
+      <c r="L15" s="1">
         <v>43642.018577106945</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>360</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>36</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43672,4304915412","43686,0578299223","43697,1628088783",680,1);</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="O15" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-05-21","2019-06-13","2019-06-26",360,36,13,16);</v>
+      </c>
+      <c r="Q15" t="s">
         <v>22</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-07-26</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-08-09</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-08-20</v>
+      </c>
+      <c r="E16">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="2">
+      <c r="I16" s="2">
         <v>43672.430491541199</v>
       </c>
-      <c r="G16" s="2">
+      <c r="J16" s="2">
         <v>43672.430491541199</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="1">
         <v>43686.057829922291</v>
       </c>
-      <c r="I16" s="1">
+      <c r="L16" s="1">
         <v>43697.162808878282</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>680</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>68</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43798,2640983434","43799,2860177387","43813,1384792347",1280,15);</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="O16" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-07-26","2019-08-09","2019-08-20",680,68,12,1);</v>
+      </c>
+      <c r="Q16" t="s">
         <v>24</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-11-29</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-11-30</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-12-14</v>
+      </c>
+      <c r="E17">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>21</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
+      <c r="G17">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2">
+      <c r="I17" s="2">
         <v>43798.264098343352</v>
       </c>
-      <c r="G17" s="2">
+      <c r="J17" s="2">
         <v>43798.264098343352</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17" s="1">
         <v>43799.286017738712</v>
       </c>
-      <c r="I17" s="1">
+      <c r="L17" s="1">
         <v>43813.138479234738</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>1280</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>128</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43536,0697482158","43561,0594189185","43564,9943939354",420,19);</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-11-29","2019-11-30","2019-12-14",1280,128,21,15);</v>
+      </c>
+      <c r="Q17" t="s">
         <v>25</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-12</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-04-06</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-04-09</v>
+      </c>
+      <c r="E18">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>14</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
+      <c r="G18">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="2">
+      <c r="I18" s="2">
         <v>43536.069748215785</v>
       </c>
-      <c r="G18" s="2">
+      <c r="J18" s="2">
         <v>43536.069748215785</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K18" s="1">
         <v>43561.05941891847</v>
       </c>
-      <c r="I18" s="1">
+      <c r="L18" s="1">
         <v>43564.994393935405</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>420</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>42</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43482,1933169094","43489,8190586791","43493,263885666",260,12);</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="O18" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-03-12","2019-04-06","2019-04-09",420,42,14,19);</v>
+      </c>
+      <c r="Q18" t="s">
         <v>27</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-17</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-01-24</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-01-28</v>
+      </c>
+      <c r="E19">
         <v>20</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <v>24</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
+      <c r="G19">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="2">
+      <c r="I19" s="2">
         <v>43482.193316909375</v>
       </c>
-      <c r="G19" s="2">
+      <c r="J19" s="2">
         <v>43482.193316909375</v>
       </c>
-      <c r="H19" s="1">
+      <c r="K19" s="1">
         <v>43489.819058679146</v>
       </c>
-      <c r="I19" s="1">
+      <c r="L19" s="1">
         <v>43493.263885665991</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>260</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>26</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43832,6386458333","43876,71042471","43885,3648072327",1380,9);</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="O19" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-01-17","2019-01-24","2019-01-28",260,26,24,12);</v>
+      </c>
+      <c r="Q19" t="s">
         <v>29</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-01-02</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-02-15</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>2020-02-24</v>
+      </c>
+      <c r="E20">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <v>12</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
+      <c r="G20">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="2">
+      <c r="I20" s="2">
         <v>43832.638645833336</v>
       </c>
-      <c r="G20" s="2">
+      <c r="J20" s="2">
         <v>43832.638645833336</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20" s="1">
         <v>43876.710424709978</v>
       </c>
-      <c r="I20" s="1">
+      <c r="L20" s="1">
         <v>43885.364807232727</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>1380</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>138</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43718,2847304134","43732,5573356262","43739,3131317475",1430,12);</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="O20" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2020-01-02","2020-02-15","2020-02-24",1380,138,12,9);</v>
+      </c>
+      <c r="Q20" t="s">
         <v>31</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-09-10</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-09-24</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-10-01</v>
+      </c>
+      <c r="E21">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
+      <c r="G21">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="2">
+      <c r="I21" s="2">
         <v>43718.284730413368</v>
       </c>
-      <c r="G21" s="2">
+      <c r="J21" s="2">
         <v>43718.284730413368</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K21" s="1">
         <v>43732.55733562621</v>
       </c>
-      <c r="I21" s="1">
+      <c r="L21" s="1">
         <v>43739.313131747491</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>1430</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>143</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43596,0464203629","43626,5907658452","43630,0562957946",820,1);</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="O21" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-09-10","2019-09-24","2019-10-01",1430,143,4,12);</v>
+      </c>
+      <c r="Q21" t="s">
         <v>32</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-05-11</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-06-10</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-06-14</v>
+      </c>
+      <c r="E22">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <v>23</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="2">
+      <c r="I22" s="2">
         <v>43596.046420362851</v>
       </c>
-      <c r="G22" s="2">
+      <c r="J22" s="2">
         <v>43596.046420362851</v>
       </c>
-      <c r="H22" s="1">
+      <c r="K22" s="1">
         <v>43626.590765845191</v>
       </c>
-      <c r="I22" s="1">
+      <c r="L22" s="1">
         <v>43630.056295794551</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>820</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>82</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43759,1929578442","43762,8724941977","43769,7390879776",650,11);</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="O22" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-05-11","2019-06-10","2019-06-14",820,82,23,1);</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-10-21</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-10-24</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-10-31</v>
+      </c>
+      <c r="E23">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <v>10</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
+      <c r="G23">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="2">
+      <c r="I23" s="2">
         <v>43759.19295784417</v>
       </c>
-      <c r="G23" s="2">
+      <c r="J23" s="2">
         <v>43759.19295784417</v>
       </c>
-      <c r="H23" s="1">
+      <c r="K23" s="1">
         <v>43762.872494197749</v>
       </c>
-      <c r="I23" s="1">
+      <c r="L23" s="1">
         <v>43769.739087977614</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>650</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>65</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43842,77125","43894,6144652977","43899,0214771497",1290,14);</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="O23" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-10-21","2019-10-24","2019-10-31",650,65,10,11);</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-01-12</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-03-04</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>2020-03-09</v>
+      </c>
+      <c r="E24">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="F24">
         <v>20</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
+      <c r="G24">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="2">
+      <c r="I24" s="2">
         <v>43842.771249999998</v>
       </c>
-      <c r="G24" s="2">
+      <c r="J24" s="2">
         <v>43842.771249999998</v>
       </c>
-      <c r="H24" s="1">
+      <c r="K24" s="1">
         <v>43894.614465297738</v>
       </c>
-      <c r="I24" s="1">
+      <c r="L24" s="1">
         <v>43899.021477149654</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>1290</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>129</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43557,8977361534","43587,2243565688","43594,9758784692",1030,19);</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="O24" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2020-01-12","2020-03-04","2020-03-09",1290,129,20,14);</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-04-02</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-05-02</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-09</v>
+      </c>
+      <c r="E25">
         <v>26</v>
       </c>
-      <c r="C25">
+      <c r="F25">
         <v>15</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
+      <c r="G25">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="2">
+      <c r="I25" s="2">
         <v>43557.897736153405</v>
       </c>
-      <c r="G25" s="2">
+      <c r="J25" s="2">
         <v>43557.897736153405</v>
       </c>
-      <c r="H25" s="1">
+      <c r="K25" s="1">
         <v>43587.224356568811</v>
       </c>
-      <c r="I25" s="1">
+      <c r="L25" s="1">
         <v>43594.975878469209</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>1030</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>103</v>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43469,6294950696","43511,8317320958","43521,905093922",470,17);</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="O25" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-04-02","2019-05-02","2019-05-09",1030,103,15,19);</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-04</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-02-15</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-02-25</v>
+      </c>
+      <c r="E26">
         <v>27</v>
       </c>
-      <c r="C26">
+      <c r="F26">
         <v>17</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
+      <c r="G26">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="2">
+      <c r="I26" s="2">
         <v>43469.629495069581</v>
       </c>
-      <c r="G26" s="2">
+      <c r="J26" s="2">
         <v>43469.629495069581</v>
       </c>
-      <c r="H26" s="1">
+      <c r="K26" s="1">
         <v>43511.831732095772</v>
       </c>
-      <c r="I26" s="1">
+      <c r="L26" s="1">
         <v>43521.905093922047</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>470</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>47</v>
       </c>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43602,3122723491","43616,0820250359","43619,3093607197",1460,16);</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="O26" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-01-04","2019-02-15","2019-02-25",470,47,17,17);</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-05-17</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-05-31</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-06-03</v>
+      </c>
+      <c r="E27">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <v>14</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
+      <c r="G27">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="2">
+      <c r="I27" s="2">
         <v>43602.312272349132</v>
       </c>
-      <c r="G27" s="2">
+      <c r="J27" s="2">
         <v>43602.312272349132</v>
       </c>
-      <c r="H27" s="1">
+      <c r="K27" s="1">
         <v>43616.082025035867</v>
       </c>
-      <c r="I27" s="1">
+      <c r="L27" s="1">
         <v>43619.309360719744</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>1460</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>146</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43567,7591351909","43608,5301368913","43613,9164756952",1310,6);</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="O27" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-05-17","2019-05-31","2019-06-03",1460,146,14,16);</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-04-12</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-05-23</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-28</v>
+      </c>
+      <c r="E28">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="F28">
         <v>21</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
+      <c r="G28">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="2">
+      <c r="I28" s="2">
         <v>43567.759135190921</v>
       </c>
-      <c r="G28" s="2">
+      <c r="J28" s="2">
         <v>43567.759135190921</v>
       </c>
-      <c r="H28" s="1">
+      <c r="K28" s="1">
         <v>43608.530136891262</v>
       </c>
-      <c r="I28" s="1">
+      <c r="L28" s="1">
         <v>43613.916475695238</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>1310</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>131</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43642,139258998","43661,6059605571","43667,1933761647",460,9);</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="O28" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-04-12","2019-05-23","2019-05-28",1310,131,21,6);</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-06-26</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-07-15</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-07-21</v>
+      </c>
+      <c r="E29">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="F29">
         <v>20</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
+      <c r="G29">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="2">
+      <c r="I29" s="2">
         <v>43642.13925899801</v>
       </c>
-      <c r="G29" s="2">
+      <c r="J29" s="2">
         <v>43642.13925899801</v>
       </c>
-      <c r="H29" s="1">
+      <c r="K29" s="1">
         <v>43661.605960557055</v>
       </c>
-      <c r="I29" s="1">
+      <c r="L29" s="1">
         <v>43667.193376164709</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>460</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>46</v>
       </c>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43564,3815431391","43608,3528077178","43612,7429056079",350,17);</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="O29" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-06-26","2019-07-15","2019-07-21",460,46,20,9);</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-04-09</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-05-23</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-27</v>
+      </c>
+      <c r="E30">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="F30">
         <v>18</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
+      <c r="G30">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="2">
+      <c r="I30" s="2">
         <v>43564.381543139076</v>
       </c>
-      <c r="G30" s="2">
+      <c r="J30" s="2">
         <v>43564.381543139076</v>
       </c>
-      <c r="H30" s="1">
+      <c r="K30" s="1">
         <v>43608.352807717762</v>
       </c>
-      <c r="I30" s="1">
+      <c r="L30" s="1">
         <v>43612.742905607927</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>350</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>35</v>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43630,2419594294","43679,6083789644","43681,1755232748",890,14);</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="O30" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-04-09","2019-05-23","2019-05-27",350,35,18,17);</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-06-14</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-08-02</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-08-04</v>
+      </c>
+      <c r="E31">
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="F31">
         <v>23</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
+      <c r="G31">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="2">
+      <c r="I31" s="2">
         <v>43630.241959429353</v>
       </c>
-      <c r="G31" s="2">
+      <c r="J31" s="2">
         <v>43630.241959429353</v>
       </c>
-      <c r="H31" s="1">
+      <c r="K31" s="1">
         <v>43679.608378964404</v>
       </c>
-      <c r="I31" s="1">
+      <c r="L31" s="1">
         <v>43681.175523274833</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>890</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>89</v>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43530,8197698452","43547,988722229","43555,9359572357",1440,14);</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="O31" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-06-14","2019-08-02","2019-08-04",890,89,23,14);</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-06</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-23</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-03-31</v>
+      </c>
+      <c r="E32">
         <v>33</v>
       </c>
-      <c r="C32">
+      <c r="F32">
         <v>12</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
+      <c r="G32">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="2">
+      <c r="I32" s="2">
         <v>43530.819769845199</v>
       </c>
-      <c r="G32" s="2">
+      <c r="J32" s="2">
         <v>43530.819769845199</v>
       </c>
-      <c r="H32" s="1">
+      <c r="K32" s="1">
         <v>43547.988722229005</v>
       </c>
-      <c r="I32" s="1">
+      <c r="L32" s="1">
         <v>43555.935957235677</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>1440</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>144</v>
       </c>
-      <c r="L32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43551,0796386467","43584,3777329566","43592,6382502092",1010,17);</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="O32" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-03-06","2019-03-23","2019-03-31",1440,144,12,14);</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-27</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-04-29</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-07</v>
+      </c>
+      <c r="E33">
         <v>34</v>
       </c>
-      <c r="C33">
+      <c r="F33">
         <v>19</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
+      <c r="G33">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="2">
+      <c r="I33" s="2">
         <v>43551.079638646741</v>
       </c>
-      <c r="G33" s="2">
+      <c r="J33" s="2">
         <v>43551.079638646741</v>
       </c>
-      <c r="H33" s="1">
+      <c r="K33" s="1">
         <v>43584.377732956644</v>
       </c>
-      <c r="I33" s="1">
+      <c r="L33" s="1">
         <v>43592.63825020918</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>1010</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>101</v>
       </c>
-      <c r="L33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43507,8574798984","43532,7568387325","43546,5771921513",790,13);</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="O33" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-03-27","2019-04-29","2019-05-07",1010,101,19,17);</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-02-11</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-03-08</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-03-22</v>
+      </c>
+      <c r="E34">
         <v>35</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <v>16</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
+      <c r="G34">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="2">
+      <c r="I34" s="2">
         <v>43507.857479898441</v>
       </c>
-      <c r="G34" s="2">
+      <c r="J34" s="2">
         <v>43507.857479898441</v>
       </c>
-      <c r="H34" s="1">
+      <c r="K34" s="1">
         <v>43532.756838732465</v>
       </c>
-      <c r="I34" s="1">
+      <c r="L34" s="1">
         <v>43546.577192151264</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>790</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>79</v>
       </c>
-      <c r="L34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43570,0625343153","43578,3949984271","43589,6241899102",270,5);</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="O34" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-02-11","2019-03-08","2019-03-22",790,79,16,13);</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-04-15</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-04-23</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-04</v>
+      </c>
+      <c r="E35">
         <v>36</v>
       </c>
-      <c r="C35">
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
+      <c r="G35">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="2">
+      <c r="I35" s="2">
         <v>43570.062534315271</v>
       </c>
-      <c r="G35" s="2">
+      <c r="J35" s="2">
         <v>43570.062534315271</v>
       </c>
-      <c r="H35" s="1">
+      <c r="K35" s="1">
         <v>43578.394998427058</v>
       </c>
-      <c r="I35" s="1">
+      <c r="L35" s="1">
         <v>43589.62418991021</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>270</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>27</v>
       </c>
-      <c r="L35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43549,3678068255","43587,1553827688","43601,5812814534",660,19);</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="O35" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-04-15","2019-04-23","2019-05-04",270,27,2,5);</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-03-25</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-05-02</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-16</v>
+      </c>
+      <c r="E36">
         <v>37</v>
       </c>
-      <c r="C36">
+      <c r="F36">
         <v>19</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
+      <c r="G36">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="2">
+      <c r="I36" s="2">
         <v>43549.367806825547</v>
       </c>
-      <c r="G36" s="2">
+      <c r="J36" s="2">
         <v>43549.367806825547</v>
       </c>
-      <c r="H36" s="1">
+      <c r="K36" s="1">
         <v>43587.155382768782</v>
       </c>
-      <c r="I36" s="1">
+      <c r="L36" s="1">
         <v>43601.581281453393</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>660</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>66</v>
       </c>
-      <c r="L36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43586,6166449037","43630,8182249513","43634,3624418938",140,13);</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="O36" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-03-25","2019-05-02","2019-05-16",660,66,19,19);</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-05-01</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-06-14</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-06-18</v>
+      </c>
+      <c r="E37">
         <v>38</v>
       </c>
-      <c r="C37">
+      <c r="F37">
         <v>4</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
+      <c r="G37">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="2">
+      <c r="I37" s="2">
         <v>43586.616644903654</v>
       </c>
-      <c r="G37" s="2">
+      <c r="J37" s="2">
         <v>43586.616644903654</v>
       </c>
-      <c r="H37" s="1">
+      <c r="K37" s="1">
         <v>43630.818224951334</v>
       </c>
-      <c r="I37" s="1">
+      <c r="L37" s="1">
         <v>43634.362441893754</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>140</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>14</v>
       </c>
-      <c r="L37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43840,5410968364","43885,3931737022","43890,6512483785",1460,14);</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="O37" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-05-01","2019-06-14","2019-06-18",140,14,4,13);</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-01-10</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-02-24</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>2020-02-29</v>
+      </c>
+      <c r="E38">
         <v>39</v>
       </c>
-      <c r="C38">
+      <c r="F38">
         <v>19</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
+      <c r="G38">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43840.541096836409</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43840.541096836409</v>
       </c>
-      <c r="H38" s="1">
+      <c r="K38" s="1">
         <v>43885.393173702185</v>
       </c>
-      <c r="I38" s="1">
+      <c r="L38" s="1">
         <v>43890.651248378519</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>1460</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>146</v>
       </c>
-      <c r="L38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43793,7401774869","43799,6383330931","43800,4772099373",790,6);</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="O38" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2020-01-10","2020-02-24","2020-02-29",1460,146,19,14);</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-11-24</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-11-30</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-12-01</v>
+      </c>
+      <c r="E39">
         <v>40</v>
       </c>
-      <c r="C39">
+      <c r="F39">
         <v>4</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
+      <c r="G39">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="2">
+      <c r="I39" s="2">
         <v>43793.740177486878</v>
       </c>
-      <c r="G39" s="2">
+      <c r="J39" s="2">
         <v>43793.740177486878</v>
       </c>
-      <c r="H39" s="1">
+      <c r="K39" s="1">
         <v>43799.638333093069</v>
       </c>
-      <c r="I39" s="1">
+      <c r="L39" s="1">
         <v>43800.477209937322</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>790</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>79</v>
       </c>
-      <c r="L39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"43843,146282967","43860,6986494297","43875,3163757801",390,15);</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="O39" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2019-11-24","2019-11-30","2019-12-01",790,79,4,6);</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-01-13</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-01-30</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>2020-02-14</v>
+      </c>
+      <c r="E40">
         <v>41</v>
       </c>
-      <c r="C40">
+      <c r="F40">
         <v>20</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
+      <c r="G40">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="2">
+      <c r="I40" s="2">
         <v>43843.146282966954</v>
       </c>
-      <c r="G40" s="2">
+      <c r="J40" s="2">
         <v>43843.146282966954</v>
       </c>
-      <c r="H40" s="1">
+      <c r="K40" s="1">
         <v>43860.698649429687</v>
       </c>
-      <c r="I40" s="1">
+      <c r="L40" s="1">
         <v>43875.316375780065</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>390</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>39</v>
       </c>
-      <c r="L40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `sejourne`(`idSejourne`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"","","",,);</v>
+      <c r="O40" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `reservations`(`idReservation`, `dateReservation`, `dateDebut`, `dateFin`, `prixLocation`, `arrhes`, `idChambre`, `idClient`) VALUES (NULL,"2020-01-13","2020-01-30","2020-02-14",390,39,20,15);</v>
       </c>
     </row>
   </sheetData>
@@ -3699,7 +4589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
@@ -3745,8 +4635,8 @@
         <v>120</v>
       </c>
       <c r="G2" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C2&amp;""", """&amp;Client!D2&amp;""", """&amp;Client!E2&amp;""", """&amp;Client!F2&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"DOE", "John", "Rue Du General Leclerc", "Chatenay Malabry");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C2&amp;""", """&amp;Client!D2&amp;""", """&amp;Client!E2&amp;""", """&amp;Client!F2&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"DOE", "John", "Rue Du General Leclerc", "Chatenay Malabry");</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3766,8 +4656,8 @@
         <v>2</v>
       </c>
       <c r="G3" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C3&amp;""", """&amp;Client!D3&amp;""", """&amp;Client!E3&amp;""", """&amp;Client!F3&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"HOMME", "Josh", "Rue Danton", "Palm Desert");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C3&amp;""", """&amp;Client!D3&amp;""", """&amp;Client!E3&amp;""", """&amp;Client!F3&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"HOMME", "Josh", "Rue Danton", "Palm Desert");</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3787,8 +4677,8 @@
         <v>4</v>
       </c>
       <c r="G4" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C4&amp;""", """&amp;Client!D4&amp;""", """&amp;Client!E4&amp;""", """&amp;Client!F4&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"PAUL", "Weller", "Rue Hoche", "Londres");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C4&amp;""", """&amp;Client!D4&amp;""", """&amp;Client!E4&amp;""", """&amp;Client!F4&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"PAUL", "Weller", "Rue Hoche", "Londres");</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3808,8 +4698,8 @@
         <v>6</v>
       </c>
       <c r="G5" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C5&amp;""", """&amp;Client!D5&amp;""", """&amp;Client!E5&amp;""", """&amp;Client!F5&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"WHITE", "Jack", "Allee Gustave Eiffel", "Detroit");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C5&amp;""", """&amp;Client!D5&amp;""", """&amp;Client!E5&amp;""", """&amp;Client!F5&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"WHITE", "Jack", "Allee Gustave Eiffel", "Detroit");</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3829,8 +4719,8 @@
         <v>8</v>
       </c>
       <c r="G6" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C6&amp;""", """&amp;Client!D6&amp;""", """&amp;Client!E6&amp;""", """&amp;Client!F6&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"CLAYPOOL", "Les", "Rue Jean Pierre Timbaud", "San Francisco");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C6&amp;""", """&amp;Client!D6&amp;""", """&amp;Client!E6&amp;""", """&amp;Client!F6&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"CLAYPOOL", "Les", "Rue Jean Pierre Timbaud", "San Francisco");</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3850,8 +4740,8 @@
         <v>4</v>
       </c>
       <c r="G7" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C7&amp;""", """&amp;Client!D7&amp;""", """&amp;Client!E7&amp;""", """&amp;Client!F7&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"SQUIRE", "Chris", "Place Paul Vaillant Couturier", "Londres");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C7&amp;""", """&amp;Client!D7&amp;""", """&amp;Client!E7&amp;""", """&amp;Client!F7&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"SQUIRE", "Chris", "Place Paul Vaillant Couturier", "Londres");</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3871,8 +4761,8 @@
         <v>4</v>
       </c>
       <c r="G8" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C8&amp;""", """&amp;Client!D8&amp;""", """&amp;Client!E8&amp;""", """&amp;Client!F8&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"WOOD", "Ronnie", "Rue Erevan", "Londres");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C8&amp;""", """&amp;Client!D8&amp;""", """&amp;Client!E8&amp;""", """&amp;Client!F8&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"WOOD", "Ronnie", "Rue Erevan", "Londres");</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3892,8 +4782,8 @@
         <v>12</v>
       </c>
       <c r="G9" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C9&amp;""", """&amp;Client!D9&amp;""", """&amp;Client!E9&amp;""", """&amp;Client!F9&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"THUNDERS", "Johnny", "Rue Du General Leclerc", "New York");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C9&amp;""", """&amp;Client!D9&amp;""", """&amp;Client!E9&amp;""", """&amp;Client!F9&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"THUNDERS", "Johnny", "Rue Du General Leclerc", "New York");</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3913,8 +4803,8 @@
         <v>84</v>
       </c>
       <c r="G10" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C10&amp;""", """&amp;Client!D10&amp;""", """&amp;Client!E10&amp;""", """&amp;Client!F10&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"JEUNEMAITRE", "Eric", "Rue Du General Leclerc", "Chaville");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C10&amp;""", """&amp;Client!D10&amp;""", """&amp;Client!E10&amp;""", """&amp;Client!F10&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"JEUNEMAITRE", "Eric", "Rue Du General Leclerc", "Chaville");</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3934,8 +4824,8 @@
         <v>121</v>
       </c>
       <c r="G11" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C11&amp;""", """&amp;Client!D11&amp;""", """&amp;Client!E11&amp;""", """&amp;Client!F11&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"KARAM", "Patrick", "Rue Danton", "Courbevoie");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C11&amp;""", """&amp;Client!D11&amp;""", """&amp;Client!E11&amp;""", """&amp;Client!F11&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"KARAM", "Patrick", "Rue Danton", "Courbevoie");</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3955,8 +4845,8 @@
         <v>122</v>
       </c>
       <c r="G12" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C12&amp;""", """&amp;Client!D12&amp;""", """&amp;Client!E12&amp;""", """&amp;Client!F12&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"RUFET", "Corinne", "Rue Hoche", "Le Plessis Robinson");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C12&amp;""", """&amp;Client!D12&amp;""", """&amp;Client!E12&amp;""", """&amp;Client!F12&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"RUFET", "Corinne", "Rue Hoche", "Le Plessis Robinson");</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3976,8 +4866,8 @@
         <v>123</v>
       </c>
       <c r="G13" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C13&amp;""", """&amp;Client!D13&amp;""", """&amp;Client!E13&amp;""", """&amp;Client!F13&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"SAINT JUST ", "Wallerand", "Allee Gustave Eiffel", "Marnes La Coquette");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C13&amp;""", """&amp;Client!D13&amp;""", """&amp;Client!E13&amp;""", """&amp;Client!F13&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"SAINT JUST ", "Wallerand", "Allee Gustave Eiffel", "Marnes La Coquette");</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3997,8 +4887,8 @@
         <v>120</v>
       </c>
       <c r="G14" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C14&amp;""", """&amp;Client!D14&amp;""", """&amp;Client!E14&amp;""", """&amp;Client!F14&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"SANTINI", "Jean-Luc", "Rue Jean Pierre Timbaud", "Chatenay Malabry");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C14&amp;""", """&amp;Client!D14&amp;""", """&amp;Client!E14&amp;""", """&amp;Client!F14&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"SANTINI", "Jean-Luc", "Rue Jean Pierre Timbaud", "Chatenay Malabry");</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4018,8 +4908,8 @@
         <v>122</v>
       </c>
       <c r="G15" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C15&amp;""", """&amp;Client!D15&amp;""", """&amp;Client!E15&amp;""", """&amp;Client!F15&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"AIT", "Eddie", "Place Paul Vaillant Couturier", "Le Plessis Robinson");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C15&amp;""", """&amp;Client!D15&amp;""", """&amp;Client!E15&amp;""", """&amp;Client!F15&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"AIT", "Eddie", "Place Paul Vaillant Couturier", "Le Plessis Robinson");</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4039,8 +4929,8 @@
         <v>120</v>
       </c>
       <c r="G16" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C16&amp;""", """&amp;Client!D16&amp;""", """&amp;Client!E16&amp;""", """&amp;Client!F16&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"BARBOTIN", "Eddie", "Rue Erevan", "Chatenay Malabry");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C16&amp;""", """&amp;Client!D16&amp;""", """&amp;Client!E16&amp;""", """&amp;Client!F16&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"BARBOTIN", "Eddie", "Rue Erevan", "Chatenay Malabry");</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -4060,8 +4950,8 @@
         <v>4</v>
       </c>
       <c r="G17" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C17&amp;""", """&amp;Client!D17&amp;""", """&amp;Client!E17&amp;""", """&amp;Client!F17&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"BERESSI", "Isabelle", "Rue Du General Leclerc", "Londres");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C17&amp;""", """&amp;Client!D17&amp;""", """&amp;Client!E17&amp;""", """&amp;Client!F17&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"BERESSI", "Isabelle", "Rue Du General Leclerc", "Londres");</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -4081,8 +4971,8 @@
         <v>124</v>
       </c>
       <c r="G18" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C18&amp;""", """&amp;Client!D18&amp;""", """&amp;Client!E18&amp;""", """&amp;Client!F18&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"CAMARA", "Lamine", "Rue Ernest Renan", "Antony");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C18&amp;""", """&amp;Client!D18&amp;""", """&amp;Client!E18&amp;""", """&amp;Client!F18&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"CAMARA", "Lamine", "Rue Ernest Renan", "Antony");</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -4102,8 +4992,8 @@
         <v>120</v>
       </c>
       <c r="G19" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C19&amp;""", """&amp;Client!D19&amp;""", """&amp;Client!E19&amp;""", """&amp;Client!F19&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"CECCONI", "Frank", "Rue Georges Marie", "Chatenay Malabry");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C19&amp;""", """&amp;Client!D19&amp;""", """&amp;Client!E19&amp;""", """&amp;Client!F19&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"CECCONI", "Frank", "Rue Georges Marie", "Chatenay Malabry");</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -4123,8 +5013,8 @@
         <v>125</v>
       </c>
       <c r="G20" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C20&amp;""", """&amp;Client!D20&amp;""", """&amp;Client!E20&amp;""", """&amp;Client!F20&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"CHEVRON", "Eric", "Boulevard Gallieni", "Suresnes");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C20&amp;""", """&amp;Client!D20&amp;""", """&amp;Client!E20&amp;""", """&amp;Client!F20&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"CHEVRON", "Eric", "Boulevard Gallieni", "Suresnes");</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -4144,8 +5034,8 @@
         <v>126</v>
       </c>
       <c r="G21" t="str">
-        <f>"INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C21&amp;""", """&amp;Client!D21&amp;""", """&amp;Client!E21&amp;""", """&amp;Client!F21&amp;""");"</f>
-        <v>INSERT INTO ` Clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"CIUNTU", "Marie-Carole", "Esplanade Du Belvedere", "Meudon");</v>
+        <f>"INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"""&amp;Client!C21&amp;""", """&amp;Client!D21&amp;""", """&amp;Client!E21&amp;""", """&amp;Client!F21&amp;""");"</f>
+        <v>INSERT INTO `clients` (`idClient`, `nomClient`, `prenomClient`, `adresseClient`, `villeClient`) VALUES (NULL,"CIUNTU", "Marie-Carole", "Esplanade Du Belvedere", "Meudon");</v>
       </c>
     </row>
   </sheetData>
@@ -4158,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,7 +5058,7 @@
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1"/>
+    <col min="8" max="8" width="169.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4212,6 +5102,10 @@
       <c r="G2" t="s">
         <v>36</v>
       </c>
+      <c r="H2" t="str">
+        <f>"INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"""&amp;D2&amp;""","&amp;E2&amp;","""&amp;F2&amp;""","""&amp;G2&amp;""","&amp;B2&amp;");"</f>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Le Magnifique",3,"rue du bas","Pralo",1);</v>
+      </c>
       <c r="M2" t="s">
         <v>69</v>
       </c>
@@ -4239,6 +5133,10 @@
       <c r="G3" t="s">
         <v>36</v>
       </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H16" si="1">"INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"""&amp;D3&amp;""","&amp;E3&amp;","""&amp;F3&amp;""","""&amp;G3&amp;""","&amp;B3&amp;");"</f>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Hotel du haut",1,"rue du haut","Pralo",1);</v>
+      </c>
       <c r="M3" t="s">
         <v>70</v>
       </c>
@@ -4266,6 +5164,10 @@
       <c r="G4" t="s">
         <v>41</v>
       </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Le Narval",3,"place de la liberation","Vonten",2);</v>
+      </c>
       <c r="M4" t="s">
         <v>71</v>
       </c>
@@ -4293,6 +5195,10 @@
       <c r="G5" t="s">
         <v>44</v>
       </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Les Pissenlis",4,"place du 14 juillet","Bretou",2);</v>
+      </c>
       <c r="M5" t="s">
         <v>53</v>
       </c>
@@ -4320,6 +5226,10 @@
       <c r="G6" t="s">
         <v>44</v>
       </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"RR Hotel",5,"place du bas","Bretou",2);</v>
+      </c>
       <c r="M6" t="s">
         <v>55</v>
       </c>
@@ -4347,6 +5257,10 @@
       <c r="G7" t="s">
         <v>44</v>
       </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"La Brique",2,"place du haut","Bretou",2);</v>
+      </c>
       <c r="M7" t="s">
         <v>57</v>
       </c>
@@ -4374,6 +5288,10 @@
       <c r="G8" t="s">
         <v>51</v>
       </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Le Beau Rivage",3,"place du centre","Toras",3);</v>
+      </c>
       <c r="M8" t="s">
         <v>59</v>
       </c>
@@ -4401,6 +5319,10 @@
       <c r="G9" t="s">
         <v>53</v>
       </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Residence les marmottes",1,"1 Chemin des randonneurs","Alpe d Huez",6);</v>
+      </c>
       <c r="M9" t="s">
         <v>62</v>
       </c>
@@ -4428,6 +5350,10 @@
       <c r="G10" t="s">
         <v>55</v>
       </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Residence les edelweiss",5,"2 Rue des sapins","Areches",2);</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -4449,6 +5375,10 @@
       <c r="G11" t="s">
         <v>57</v>
       </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Residence les panoramas",4,"7 Avenue de la neige","Beaufort",2);</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -4470,6 +5400,10 @@
       <c r="G12" t="s">
         <v>59</v>
       </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Residence les sapins",5,"8 Chemin des pissenlits","Aussois",4);</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -4491,6 +5425,10 @@
       <c r="G13" t="s">
         <v>62</v>
       </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Chalets les marmottes",3,"10 Rue des etables","Avoriaz",3);</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -4512,6 +5450,10 @@
       <c r="G14" t="s">
         <v>53</v>
       </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Chalets les edelweiss",3,"8 Avenue des sapins","Alpe d Huez",8);</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -4533,6 +5475,10 @@
       <c r="G15" t="s">
         <v>55</v>
       </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Chalets les panoramas",2,"3 Chemin de la neige","Areches",6);</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -4553,6 +5499,10 @@
       </c>
       <c r="G16" t="s">
         <v>57</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `hotels`(`idHotel`, `nomHotel`, `categorie`, `adresseHotel`, `villeHotel`, `idStation`) VALUES (NULL,"Chalets les sapins",5,"3 Rue des pissenlits","Beaufort",8);</v>
       </c>
     </row>
   </sheetData>
